--- a/amigo_secreto.xlsx
+++ b/amigo_secreto.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\estef\OneDrive\Escritorio\AmigoSecreto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\estef\OneDrive\Escritorio\Productivo\ProyectosVisual\AmigoSecreto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0A1DBE-18D7-47C8-ABD5-F0C000356182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2049256D-10BB-4881-9D08-A8F019F05505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11220" yWindow="4185" windowWidth="9960" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Name</t>
   </si>
@@ -37,60 +37,6 @@
   </si>
   <si>
     <t>Message</t>
-  </si>
-  <si>
-    <t>Amigo secreto</t>
-  </si>
-  <si>
-    <t>estefanogalarza@hotmail.com</t>
-  </si>
-  <si>
-    <t>Jorge</t>
-  </si>
-  <si>
-    <t>Mateo</t>
-  </si>
-  <si>
-    <t>CTM</t>
-  </si>
-  <si>
-    <t>Ariel Sala</t>
-  </si>
-  <si>
-    <t>jorgeortizdav@gmail.com</t>
-  </si>
-  <si>
-    <t>byaljuga@gmail.com</t>
-  </si>
-  <si>
-    <t>Justin</t>
-  </si>
-  <si>
-    <t>justin.vizcarra9@gmail.com</t>
-  </si>
-  <si>
-    <t>jdsalgadorubio@gmail.com</t>
-  </si>
-  <si>
-    <t>Ariel.salazar2993@gmail.com</t>
-  </si>
-  <si>
-    <t>Chester</t>
-  </si>
-  <si>
-    <t>mateonaguilarm@gmail.com</t>
-  </si>
-  <si>
-    <t>Tefo</t>
-  </si>
-  <si>
-    <t>Pajas</t>
-  </si>
-  <si>
-    <t>Nuchi meco</t>
-  </si>
-  <si>
-    <t>dj58011@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -429,7 +375,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,129 +400,31 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
+      <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
+      <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
+      <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
+      <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
+      <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
+      <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
+      <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
+      <c r="B9" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{5B95757D-038C-47FE-AFFA-CA9EB6749DC9}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{9248A5F4-92C0-4D56-A944-332FEB0210A9}"/>
-    <hyperlink ref="B2" r:id="rId3" xr:uid="{A2D8FE98-1A74-4EEF-853E-993C6CC074AC}"/>
-    <hyperlink ref="B7" r:id="rId4" xr:uid="{54C794A4-F8E2-4B54-A04F-EF7E89AD59C2}"/>
-    <hyperlink ref="B8" r:id="rId5" xr:uid="{A6961B19-D2A1-4661-A249-EEF1DB398D62}"/>
-    <hyperlink ref="B6" r:id="rId6" xr:uid="{AD1254D0-6A6E-4E5F-B175-1BC23026EBC8}"/>
-    <hyperlink ref="B5" r:id="rId7" xr:uid="{58D04704-B616-4CF0-9EEA-B90BCDC157B3}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{C7B70374-E408-4877-B34B-2440EDA89EED}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>